--- a/data/trans_dic/P36BPD04_R1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R1_2023-Habitat-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9657903423320616</v>
+        <v>0.9657903423320618</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9537419042277882</v>
+        <v>0.9537419042277883</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9595897624549553</v>
+        <v>0.9595897624549551</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9439787897024101</v>
+        <v>0.9394350322564764</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.938378439241523</v>
+        <v>0.9384919713911549</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9455656394148988</v>
+        <v>0.9475326226571139</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9790391020377834</v>
+        <v>0.9779097747684219</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9655562466412617</v>
+        <v>0.966153333153302</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.96814142851091</v>
+        <v>0.9696349152377562</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.9555231157906432</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9681691979893844</v>
+        <v>0.9681691979893847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9619099390388842</v>
+        <v>0.961909939038884</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9395116987193436</v>
+        <v>0.9378694910556128</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9582758203070875</v>
+        <v>0.956587585688299</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9524618931098314</v>
+        <v>0.9515241456922979</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9683882461524013</v>
+        <v>0.9673818216816618</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9781682792717006</v>
+        <v>0.9759483850902188</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9698593536973058</v>
+        <v>0.9691261450005227</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9217693941659275</v>
+        <v>0.9217693941659273</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.9216392881694796</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.92170397123945</v>
+        <v>0.9217039712394498</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.894798382885777</v>
+        <v>0.8965901711611042</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8982657854616102</v>
+        <v>0.9001019691049569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9045826843421503</v>
+        <v>0.9058264348859165</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9408720238023069</v>
+        <v>0.9425094535128442</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9391579071662427</v>
+        <v>0.9397737097298559</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9346758368582753</v>
+        <v>0.9359873405534203</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9219656217568537</v>
+        <v>0.9219656217568536</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9378335879789362</v>
+        <v>0.9378335879789361</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9303852317495994</v>
+        <v>0.9303852317495995</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8993629832296811</v>
+        <v>0.8981954400522646</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9225461649465264</v>
+        <v>0.9227254615465833</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9170763443855044</v>
+        <v>0.9164679781843498</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9407098437565866</v>
+        <v>0.9399480178370094</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9509667533020171</v>
+        <v>0.9507854612564119</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.941158109071104</v>
+        <v>0.9408550381085369</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.9461265344235985</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9433674108243048</v>
+        <v>0.9433674108243046</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9294514683340921</v>
+        <v>0.9307517778088427</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9389872714240129</v>
+        <v>0.9378624796984617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9368477473287684</v>
+        <v>0.9370962164546754</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9494763956880001</v>
+        <v>0.9487727672555848</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9525629716204354</v>
+        <v>0.9525249099209987</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9492516477196449</v>
+        <v>0.9488104520189142</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>650994</v>
+        <v>647861</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>686165</v>
+        <v>686248</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1343508</v>
+        <v>1346303</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>675173</v>
+        <v>674394</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>706038</v>
+        <v>706475</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1375585</v>
+        <v>1377707</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>985470</v>
+        <v>983747</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1025637</v>
+        <v>1023830</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2018468</v>
+        <v>2016480</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1015759</v>
+        <v>1014703</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1046928</v>
+        <v>1044552</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>2055337</v>
+        <v>2053783</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>718588</v>
+        <v>720027</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>729624</v>
+        <v>731116</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1461201</v>
+        <v>1463210</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>755589</v>
+        <v>756904</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>762839</v>
+        <v>763340</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1509812</v>
+        <v>1511930</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>889420</v>
+        <v>888265</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1031315</v>
+        <v>1031516</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1932139</v>
+        <v>1930857</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>930309</v>
+        <v>929556</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1063087</v>
+        <v>1062884</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1982875</v>
+        <v>1982237</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3281486</v>
+        <v>3286077</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3503998</v>
+        <v>3499801</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6803613</v>
+        <v>6805418</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3352185</v>
+        <v>3349701</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3554658</v>
+        <v>3554516</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6893693</v>
+        <v>6890489</v>
       </c>
     </row>
     <row r="24">
